--- a/result/num_of_tasks_etime_sign.xlsx
+++ b/result/num_of_tasks_etime_sign.xlsx
@@ -1249,11 +1249,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83916800"/>
-        <c:axId val="70097664"/>
+        <c:axId val="224604160"/>
+        <c:axId val="225872704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83916800"/>
+        <c:axId val="224604160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,7 +1263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70097664"/>
+        <c:crossAx val="225872704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1271,7 +1271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70097664"/>
+        <c:axId val="225872704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1282,7 +1282,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83916800"/>
+        <c:crossAx val="224604160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1775,11 +1775,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82505216"/>
-        <c:axId val="82979648"/>
+        <c:axId val="224604672"/>
+        <c:axId val="225876160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82505216"/>
+        <c:axId val="224604672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1789,7 +1789,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82979648"/>
+        <c:crossAx val="225876160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1797,7 +1797,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82979648"/>
+        <c:axId val="225876160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1808,7 +1808,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82505216"/>
+        <c:crossAx val="224604672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2471,11 +2471,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="239091712"/>
-        <c:axId val="176704896"/>
+        <c:axId val="224605184"/>
+        <c:axId val="212443712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="239091712"/>
+        <c:axId val="224605184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2485,7 +2485,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176704896"/>
+        <c:crossAx val="212443712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2493,7 +2493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176704896"/>
+        <c:axId val="212443712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2504,7 +2504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="239091712"/>
+        <c:crossAx val="224605184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2844,11 +2844,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82440704"/>
-        <c:axId val="176958272"/>
+        <c:axId val="224932352"/>
+        <c:axId val="212446016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82440704"/>
+        <c:axId val="224932352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2857,7 +2857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176958272"/>
+        <c:crossAx val="212446016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2865,7 +2865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176958272"/>
+        <c:axId val="212446016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2876,7 +2876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82440704"/>
+        <c:crossAx val="224932352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3375,11 +3375,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81875968"/>
-        <c:axId val="328795264"/>
+        <c:axId val="224606208"/>
+        <c:axId val="212448320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81875968"/>
+        <c:axId val="224606208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3388,7 +3388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="328795264"/>
+        <c:crossAx val="212448320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3396,7 +3396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328795264"/>
+        <c:axId val="212448320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3407,7 +3407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81875968"/>
+        <c:crossAx val="224606208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4364,11 +4364,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="240301056"/>
-        <c:axId val="176706624"/>
+        <c:axId val="224607232"/>
+        <c:axId val="212450624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="240301056"/>
+        <c:axId val="224607232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4377,7 +4377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176706624"/>
+        <c:crossAx val="212450624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4385,7 +4385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176706624"/>
+        <c:axId val="212450624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4396,7 +4396,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240301056"/>
+        <c:crossAx val="224607232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4900,8 +4900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AG23" sqref="AG23"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
